--- a/BANG LUONG MAU 5.1.2023.xlsx
+++ b/BANG LUONG MAU 5.1.2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\man.tran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\payslip-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20ADC9-11B0-49C3-8E06-87EFADB9F398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E483A-51D8-45A4-B438-9FDB5AB3DA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,10 +514,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -530,14 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -836,7 +836,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1096,7 @@
         <v>172000000</v>
       </c>
       <c r="U3" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" s="25">
         <v>7</v>
@@ -1184,7 +1184,7 @@
         <v>173000000</v>
       </c>
       <c r="U4" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" s="25">
         <v>6</v>
@@ -4660,29 +4660,29 @@
       <c r="AN86" s="1"/>
     </row>
     <row r="87" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A87" s="43"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="42"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
-      <c r="Q87" s="42"/>
-      <c r="R87" s="42"/>
-      <c r="S87" s="42"/>
-      <c r="T87" s="42"/>
-      <c r="U87" s="42"/>
-      <c r="V87" s="42"/>
-      <c r="W87" s="42"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="44"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
@@ -4702,29 +4702,29 @@
       <c r="AN87" s="1"/>
     </row>
     <row r="88" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A88" s="44"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="42"/>
-      <c r="R88" s="42"/>
-      <c r="S88" s="42"/>
-      <c r="T88" s="42"/>
-      <c r="U88" s="42"/>
-      <c r="V88" s="42"/>
-      <c r="W88" s="42"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="44"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="44"/>
+      <c r="W88" s="44"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
@@ -4744,29 +4744,29 @@
       <c r="AN88" s="1"/>
     </row>
     <row r="89" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A89" s="45"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
-      <c r="Q89" s="42"/>
-      <c r="R89" s="42"/>
-      <c r="S89" s="42"/>
-      <c r="T89" s="42"/>
-      <c r="U89" s="42"/>
-      <c r="V89" s="42"/>
-      <c r="W89" s="42"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="44"/>
+      <c r="T89" s="44"/>
+      <c r="U89" s="44"/>
+      <c r="V89" s="44"/>
+      <c r="W89" s="44"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
@@ -4786,29 +4786,29 @@
       <c r="AN89" s="1"/>
     </row>
     <row r="90" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A90" s="46"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42"/>
-      <c r="O90" s="42"/>
-      <c r="P90" s="42"/>
-      <c r="Q90" s="42"/>
-      <c r="R90" s="42"/>
-      <c r="S90" s="42"/>
-      <c r="T90" s="42"/>
-      <c r="U90" s="42"/>
-      <c r="V90" s="42"/>
-      <c r="W90" s="42"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="44"/>
+      <c r="S90" s="44"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="44"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
@@ -4828,29 +4828,29 @@
       <c r="AN90" s="1"/>
     </row>
     <row r="91" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A91" s="47"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42"/>
-      <c r="O91" s="42"/>
-      <c r="P91" s="42"/>
-      <c r="Q91" s="42"/>
-      <c r="R91" s="42"/>
-      <c r="S91" s="42"/>
-      <c r="T91" s="42"/>
-      <c r="U91" s="42"/>
-      <c r="V91" s="42"/>
-      <c r="W91" s="42"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
@@ -4912,29 +4912,29 @@
       <c r="AN92" s="1"/>
     </row>
     <row r="93" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A93" s="41"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="42"/>
-      <c r="M93" s="42"/>
-      <c r="N93" s="42"/>
-      <c r="O93" s="42"/>
-      <c r="P93" s="42"/>
-      <c r="Q93" s="42"/>
-      <c r="R93" s="42"/>
-      <c r="S93" s="42"/>
-      <c r="T93" s="42"/>
-      <c r="U93" s="42"/>
-      <c r="V93" s="42"/>
-      <c r="W93" s="42"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="44"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
@@ -4954,9 +4954,9 @@
       <c r="AN93" s="1"/>
     </row>
     <row r="94" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A94" s="50"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
@@ -4996,9 +4996,9 @@
       <c r="AN94" s="1"/>
     </row>
     <row r="95" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A95" s="41"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
@@ -5015,10 +5015,10 @@
       <c r="Q95" s="17"/>
       <c r="R95" s="17"/>
       <c r="S95" s="17"/>
-      <c r="T95" s="51"/>
-      <c r="U95" s="42"/>
-      <c r="V95" s="42"/>
-      <c r="W95" s="42"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="44"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
@@ -5038,9 +5038,9 @@
       <c r="AN95" s="1"/>
     </row>
     <row r="96" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A96" s="43"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
@@ -5080,9 +5080,9 @@
       <c r="AN96" s="1"/>
     </row>
     <row r="97" spans="1:40" ht="76.5" x14ac:dyDescent="3.05">
-      <c r="A97" s="48"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
@@ -40908,17 +40908,17 @@
   </sheetData>
   <autoFilter ref="A1:AN86" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="T95:W95"/>
-    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A93:W93"/>
     <mergeCell ref="A87:W87"/>
     <mergeCell ref="A88:W88"/>
     <mergeCell ref="A89:W89"/>
     <mergeCell ref="A90:W90"/>
     <mergeCell ref="A91:W91"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="T95:W95"/>
+    <mergeCell ref="A96:C96"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C2:C80">
